--- a/発注資料/【AML】エフェクト発注書.xlsx
+++ b/発注資料/【AML】エフェクト発注書.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSMS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSMS\Documents\AMAZURU\発注資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25491E35-E091-4EC2-9905-E3B5628FEA16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426B90EF-C3C1-4BE7-BDED-192E95E89D34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{359FCBFF-F97E-4550-BAA7-9042CF709F7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{359FCBFF-F97E-4550-BAA7-9042CF709F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="音符" sheetId="1" r:id="rId1"/>
     <sheet name="跳水" sheetId="2" r:id="rId2"/>
+    <sheet name="帯電" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -612,6 +613,126 @@
     <t>　環境エフェクト</t>
     <rPh sb="1" eb="3">
       <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　エネミーエフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ナマコッコ_帯電</t>
+    <rPh sb="7" eb="9">
+      <t>タイデン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eff_Ene_Electro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> アメフラシの起動数が一定以上になると発生するエフェクトになります。</t>
+    <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約1秒 (ループ)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帯電ナマコ</t>
+    <rPh sb="0" eb="2">
+      <t>タイデン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①帯電ナマコが水中に存在する際の水面エフェクト</t>
+    <rPh sb="1" eb="3">
+      <t>タイデン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スイチュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>スイメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②プレイヤーが帯電ナマコの効果をうけ、ビリビリしているイメージ</t>
+    <rPh sb="7" eb="9">
+      <t>タイデン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③帯電ナマコッコの雷のまとい方や色合いの参考。</t>
+    <rPh sb="1" eb="3">
+      <t>タイデン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イロア</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 帯電ナマコの仕様をよくご確認ください。
+　▼仕様書格納場所
+　　AMAZURU\仕様書・資料\【仕様】エネミー仕様書.xlsx</t>
+    <rPh sb="1" eb="3">
+      <t>タイデン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -871,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -908,14 +1029,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -929,31 +1056,43 @@
     <xf numFmtId="56" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -971,22 +1110,19 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,7 +1214,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2524125" y="5267325"/>
+          <a:off x="2524125" y="5302250"/>
           <a:ext cx="1071399" cy="504169"/>
           <a:chOff x="2507703" y="5260099"/>
           <a:chExt cx="1063187" cy="500885"/>
@@ -1595,8 +1731,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1123950" y="5486399"/>
-          <a:ext cx="7875410" cy="4800601"/>
+          <a:off x="1145078" y="5394820"/>
+          <a:ext cx="8016553" cy="4748647"/>
           <a:chOff x="530521" y="4254232"/>
           <a:chExt cx="10289609" cy="6333501"/>
         </a:xfrm>
@@ -2042,8 +2178,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9601201" y="9382125"/>
-          <a:ext cx="2038349" cy="1838326"/>
+          <a:off x="9773413" y="9248602"/>
+          <a:ext cx="2076795" cy="1818687"/>
           <a:chOff x="9534526" y="9458325"/>
           <a:chExt cx="2038349" cy="1838326"/>
         </a:xfrm>
@@ -2234,6 +2370,358 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>131444</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>143244</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72AB64E-DDD5-40FD-94AD-AB04BC3E5863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="17762" t="27503" r="13571"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1083944" y="7877175"/>
+          <a:ext cx="3736075" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>77609</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812E932D-C65C-4FE3-BD77-9345FDDFED5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="5243565"/>
+          <a:ext cx="4192409" cy="2598824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2751D224-EF4A-4169-810C-3D5F00F9FDFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="5255895"/>
+          <a:ext cx="621030" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>93345</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C75A0C-7A6F-403E-A10A-9EEABE111211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1045845" y="7877175"/>
+          <a:ext cx="621030" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>212348</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B28D0DA-7DAD-4459-91A7-9C215A8631A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276851" y="5229160"/>
+          <a:ext cx="4241422" cy="2571816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF9D4CC-0008-44D2-8666-8F10E4C46C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314950" y="5189220"/>
+          <a:ext cx="621030" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2538,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406211D0-1E29-4520-8FFA-447FC35F495E}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2548,25 +3036,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
@@ -2637,99 +3125,99 @@
       <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
     </row>
     <row r="4" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="33">
+      <c r="C4" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15" t="s">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
     </row>
     <row r="5" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
@@ -2775,26 +3263,26 @@
     <row r="6" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
@@ -2820,26 +3308,26 @@
     <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
@@ -2892,28 +3380,28 @@
     <row r="9" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -2923,30 +3411,30 @@
     <row r="10" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18">
         <v>43980</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -2970,30 +3458,30 @@
     <row r="11" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20">
         <v>43984</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
@@ -3077,483 +3565,483 @@
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.4">
       <c r="Y16" s="5"/>
     </row>
     <row r="17" spans="5:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="V17" s="12" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="V17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
     </row>
     <row r="18" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
     </row>
     <row r="19" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
     </row>
     <row r="20" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
     </row>
     <row r="21" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
     </row>
     <row r="22" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
     </row>
     <row r="23" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
     </row>
     <row r="24" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
     </row>
     <row r="25" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
     </row>
     <row r="26" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
     </row>
     <row r="27" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
     </row>
     <row r="28" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
     </row>
     <row r="29" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
     </row>
     <row r="30" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
     </row>
     <row r="31" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
     </row>
     <row r="32" spans="5:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E32" t="s">
@@ -3622,6 +4110,23 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E17:R17"/>
+    <mergeCell ref="E18:R31"/>
+    <mergeCell ref="V17:AI17"/>
+    <mergeCell ref="V18:AI31"/>
+    <mergeCell ref="D14:U14"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:T9"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="L3:S3"/>
@@ -3629,27 +4134,10 @@
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="L4:S4"/>
     <mergeCell ref="T4:AN4"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="E17:R17"/>
-    <mergeCell ref="E18:R31"/>
-    <mergeCell ref="V17:AI17"/>
-    <mergeCell ref="V18:AI31"/>
-    <mergeCell ref="D14:U14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3658,8 +4146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFB7710-9CB8-41B6-9C4D-535D8B45CDC7}">
   <dimension ref="A1:BD48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3669,25 +4157,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
@@ -3758,199 +4246,199 @@
       <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
     </row>
     <row r="4" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="33">
+      <c r="C4" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34" t="s">
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
     </row>
     <row r="5" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="33">
+      <c r="C5" s="14">
         <v>2</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34" t="s">
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="34"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
     </row>
     <row r="6" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="33">
+      <c r="C6" s="14">
         <v>3</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34" t="s">
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
     </row>
     <row r="7" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
@@ -3996,26 +4484,26 @@
     <row r="8" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
@@ -4041,26 +4529,26 @@
     <row r="9" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -4097,28 +4585,28 @@
     <row r="11" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
@@ -4127,30 +4615,30 @@
     <row r="12" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18">
         <v>43994</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -4159,30 +4647,30 @@
     <row r="13" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20">
         <v>43997</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="21" t="s">
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
@@ -4247,30 +4735,30 @@
     <row r="15" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -4290,30 +4778,30 @@
     <row r="16" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -4333,28 +4821,28 @@
     <row r="17" spans="1:56" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -4393,1230 +4881,1230 @@
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
     </row>
     <row r="21" spans="1:56" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AN21" s="32" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AN21" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="32"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="32"/>
-      <c r="AW21" s="32"/>
-      <c r="AX21" s="32"/>
-      <c r="AY21" s="32"/>
-      <c r="AZ21" s="32"/>
-      <c r="BA21" s="32"/>
-      <c r="BB21" s="32"/>
-      <c r="BC21" s="32"/>
-      <c r="BD21" s="32"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="38"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="38"/>
+      <c r="BD21" s="38"/>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="13"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="13"/>
-      <c r="BD22" s="13"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="22"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="22"/>
+      <c r="AT22" s="22"/>
+      <c r="AU22" s="22"/>
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="22"/>
+      <c r="AX22" s="22"/>
+      <c r="AY22" s="22"/>
+      <c r="AZ22" s="22"/>
+      <c r="BA22" s="22"/>
+      <c r="BB22" s="22"/>
+      <c r="BC22" s="22"/>
+      <c r="BD22" s="22"/>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="13"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="13"/>
-      <c r="BD23" s="13"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="22"/>
+      <c r="AP23" s="22"/>
+      <c r="AQ23" s="22"/>
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="22"/>
+      <c r="AT23" s="22"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="22"/>
+      <c r="AX23" s="22"/>
+      <c r="AY23" s="22"/>
+      <c r="AZ23" s="22"/>
+      <c r="BA23" s="22"/>
+      <c r="BB23" s="22"/>
+      <c r="BC23" s="22"/>
+      <c r="BD23" s="22"/>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="13"/>
-      <c r="BB24" s="13"/>
-      <c r="BC24" s="13"/>
-      <c r="BD24" s="13"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="22"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="22"/>
+      <c r="AP24" s="22"/>
+      <c r="AQ24" s="22"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="22"/>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="22"/>
+      <c r="AX24" s="22"/>
+      <c r="AY24" s="22"/>
+      <c r="AZ24" s="22"/>
+      <c r="BA24" s="22"/>
+      <c r="BB24" s="22"/>
+      <c r="BC24" s="22"/>
+      <c r="BD24" s="22"/>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="13"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="13"/>
-      <c r="AT25" s="13"/>
-      <c r="AU25" s="13"/>
-      <c r="AV25" s="13"/>
-      <c r="AW25" s="13"/>
-      <c r="AX25" s="13"/>
-      <c r="AY25" s="13"/>
-      <c r="AZ25" s="13"/>
-      <c r="BA25" s="13"/>
-      <c r="BB25" s="13"/>
-      <c r="BC25" s="13"/>
-      <c r="BD25" s="13"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="22"/>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="22"/>
+      <c r="AP25" s="22"/>
+      <c r="AQ25" s="22"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="22"/>
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="22"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="22"/>
+      <c r="AX25" s="22"/>
+      <c r="AY25" s="22"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="22"/>
+      <c r="BB25" s="22"/>
+      <c r="BC25" s="22"/>
+      <c r="BD25" s="22"/>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="13"/>
-      <c r="AV26" s="13"/>
-      <c r="AW26" s="13"/>
-      <c r="AX26" s="13"/>
-      <c r="AY26" s="13"/>
-      <c r="AZ26" s="13"/>
-      <c r="BA26" s="13"/>
-      <c r="BB26" s="13"/>
-      <c r="BC26" s="13"/>
-      <c r="BD26" s="13"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="22"/>
+      <c r="AK26" s="22"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="22"/>
+      <c r="AP26" s="22"/>
+      <c r="AQ26" s="22"/>
+      <c r="AR26" s="22"/>
+      <c r="AS26" s="22"/>
+      <c r="AT26" s="22"/>
+      <c r="AU26" s="22"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="22"/>
+      <c r="AX26" s="22"/>
+      <c r="AY26" s="22"/>
+      <c r="AZ26" s="22"/>
+      <c r="BA26" s="22"/>
+      <c r="BB26" s="22"/>
+      <c r="BC26" s="22"/>
+      <c r="BD26" s="22"/>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="13"/>
-      <c r="AS27" s="13"/>
-      <c r="AT27" s="13"/>
-      <c r="AU27" s="13"/>
-      <c r="AV27" s="13"/>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="13"/>
-      <c r="BA27" s="13"/>
-      <c r="BB27" s="13"/>
-      <c r="BC27" s="13"/>
-      <c r="BD27" s="13"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="22"/>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="22"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="22"/>
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="22"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="22"/>
+      <c r="AX27" s="22"/>
+      <c r="AY27" s="22"/>
+      <c r="AZ27" s="22"/>
+      <c r="BA27" s="22"/>
+      <c r="BB27" s="22"/>
+      <c r="BC27" s="22"/>
+      <c r="BD27" s="22"/>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="13"/>
-      <c r="AQ28" s="13"/>
-      <c r="AR28" s="13"/>
-      <c r="AS28" s="13"/>
-      <c r="AT28" s="13"/>
-      <c r="AU28" s="13"/>
-      <c r="AV28" s="13"/>
-      <c r="AW28" s="13"/>
-      <c r="AX28" s="13"/>
-      <c r="AY28" s="13"/>
-      <c r="AZ28" s="13"/>
-      <c r="BA28" s="13"/>
-      <c r="BB28" s="13"/>
-      <c r="BC28" s="13"/>
-      <c r="BD28" s="13"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="22"/>
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="22"/>
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="22"/>
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="22"/>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-      <c r="AP29" s="13"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="13"/>
-      <c r="AS29" s="13"/>
-      <c r="AT29" s="13"/>
-      <c r="AU29" s="13"/>
-      <c r="AV29" s="13"/>
-      <c r="AW29" s="13"/>
-      <c r="AX29" s="13"/>
-      <c r="AY29" s="13"/>
-      <c r="AZ29" s="13"/>
-      <c r="BA29" s="13"/>
-      <c r="BB29" s="13"/>
-      <c r="BC29" s="13"/>
-      <c r="BD29" s="13"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="22"/>
+      <c r="AQ29" s="22"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="22"/>
+      <c r="AX29" s="22"/>
+      <c r="AY29" s="22"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="22"/>
+      <c r="BB29" s="22"/>
+      <c r="BC29" s="22"/>
+      <c r="BD29" s="22"/>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="13"/>
-      <c r="AP30" s="13"/>
-      <c r="AQ30" s="13"/>
-      <c r="AR30" s="13"/>
-      <c r="AS30" s="13"/>
-      <c r="AT30" s="13"/>
-      <c r="AU30" s="13"/>
-      <c r="AV30" s="13"/>
-      <c r="AW30" s="13"/>
-      <c r="AX30" s="13"/>
-      <c r="AY30" s="13"/>
-      <c r="AZ30" s="13"/>
-      <c r="BA30" s="13"/>
-      <c r="BB30" s="13"/>
-      <c r="BC30" s="13"/>
-      <c r="BD30" s="13"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="22"/>
+      <c r="AP30" s="22"/>
+      <c r="AQ30" s="22"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22"/>
+      <c r="AX30" s="22"/>
+      <c r="AY30" s="22"/>
+      <c r="AZ30" s="22"/>
+      <c r="BA30" s="22"/>
+      <c r="BB30" s="22"/>
+      <c r="BC30" s="22"/>
+      <c r="BD30" s="22"/>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AN31" s="13"/>
-      <c r="AO31" s="13"/>
-      <c r="AP31" s="13"/>
-      <c r="AQ31" s="13"/>
-      <c r="AR31" s="13"/>
-      <c r="AS31" s="13"/>
-      <c r="AT31" s="13"/>
-      <c r="AU31" s="13"/>
-      <c r="AV31" s="13"/>
-      <c r="AW31" s="13"/>
-      <c r="AX31" s="13"/>
-      <c r="AY31" s="13"/>
-      <c r="AZ31" s="13"/>
-      <c r="BA31" s="13"/>
-      <c r="BB31" s="13"/>
-      <c r="BC31" s="13"/>
-      <c r="BD31" s="13"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AN31" s="22"/>
+      <c r="AO31" s="22"/>
+      <c r="AP31" s="22"/>
+      <c r="AQ31" s="22"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="22"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="22"/>
+      <c r="AX31" s="22"/>
+      <c r="AY31" s="22"/>
+      <c r="AZ31" s="22"/>
+      <c r="BA31" s="22"/>
+      <c r="BB31" s="22"/>
+      <c r="BC31" s="22"/>
+      <c r="BD31" s="22"/>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AN32" s="22" t="s">
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="22"/>
+      <c r="AH32" s="22"/>
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="22"/>
+      <c r="AN32" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="13"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="22"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="22"/>
       <c r="AN33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="22"/>
+      <c r="AK34" s="22"/>
     </row>
     <row r="35" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AN35" s="32" t="s">
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="22"/>
+      <c r="AI35" s="22"/>
+      <c r="AJ35" s="22"/>
+      <c r="AK35" s="22"/>
+      <c r="AN35" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="AO35" s="32"/>
-      <c r="AP35" s="32"/>
-      <c r="AQ35" s="32"/>
-      <c r="AR35" s="32"/>
-      <c r="AS35" s="32"/>
-      <c r="AT35" s="32"/>
-      <c r="AU35" s="32"/>
-      <c r="AV35" s="32"/>
-      <c r="AW35" s="32"/>
-      <c r="AX35" s="32"/>
-      <c r="AY35" s="32"/>
-      <c r="AZ35" s="32"/>
-      <c r="BA35" s="32"/>
-      <c r="BB35" s="32"/>
-      <c r="BC35" s="32"/>
-      <c r="BD35" s="32"/>
+      <c r="AO35" s="38"/>
+      <c r="AP35" s="38"/>
+      <c r="AQ35" s="38"/>
+      <c r="AR35" s="38"/>
+      <c r="AS35" s="38"/>
+      <c r="AT35" s="38"/>
+      <c r="AU35" s="38"/>
+      <c r="AV35" s="38"/>
+      <c r="AW35" s="38"/>
+      <c r="AX35" s="38"/>
+      <c r="AY35" s="38"/>
+      <c r="AZ35" s="38"/>
+      <c r="BA35" s="38"/>
+      <c r="BB35" s="38"/>
+      <c r="BC35" s="38"/>
+      <c r="BD35" s="38"/>
     </row>
     <row r="36" spans="5:56" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="13"/>
-      <c r="AN36" s="35" t="s">
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="22"/>
+      <c r="AN36" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AO36" s="35"/>
-      <c r="AP36" s="35"/>
-      <c r="AQ36" s="35"/>
-      <c r="AR36" s="35"/>
-      <c r="AS36" s="35"/>
-      <c r="AT36" s="35"/>
-      <c r="AU36" s="35"/>
-      <c r="AV36" s="35"/>
-      <c r="AW36" s="36" t="s">
+      <c r="AO36" s="25"/>
+      <c r="AP36" s="25"/>
+      <c r="AQ36" s="25"/>
+      <c r="AR36" s="25"/>
+      <c r="AS36" s="25"/>
+      <c r="AT36" s="25"/>
+      <c r="AU36" s="25"/>
+      <c r="AV36" s="25"/>
+      <c r="AW36" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AX36" s="37"/>
-      <c r="AY36" s="37"/>
-      <c r="AZ36" s="37"/>
-      <c r="BA36" s="37"/>
-      <c r="BB36" s="37"/>
-      <c r="BC36" s="37"/>
-      <c r="BD36" s="38"/>
+      <c r="AX36" s="27"/>
+      <c r="AY36" s="27"/>
+      <c r="AZ36" s="27"/>
+      <c r="BA36" s="27"/>
+      <c r="BB36" s="27"/>
+      <c r="BC36" s="27"/>
+      <c r="BD36" s="28"/>
     </row>
     <row r="37" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="13"/>
-      <c r="AJ37" s="13"/>
-      <c r="AK37" s="13"/>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
-      <c r="AT37" s="24"/>
-      <c r="AU37" s="24"/>
-      <c r="AV37" s="26"/>
-      <c r="AW37" s="25"/>
-      <c r="AX37" s="24"/>
-      <c r="AY37" s="24"/>
-      <c r="AZ37" s="24"/>
-      <c r="BA37" s="24"/>
-      <c r="BB37" s="24"/>
-      <c r="BC37" s="24"/>
-      <c r="BD37" s="26"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="22"/>
+      <c r="AK37" s="22"/>
+      <c r="AN37" s="29"/>
+      <c r="AO37" s="30"/>
+      <c r="AP37" s="30"/>
+      <c r="AQ37" s="30"/>
+      <c r="AR37" s="30"/>
+      <c r="AS37" s="30"/>
+      <c r="AT37" s="30"/>
+      <c r="AU37" s="30"/>
+      <c r="AV37" s="31"/>
+      <c r="AW37" s="29"/>
+      <c r="AX37" s="30"/>
+      <c r="AY37" s="30"/>
+      <c r="AZ37" s="30"/>
+      <c r="BA37" s="30"/>
+      <c r="BB37" s="30"/>
+      <c r="BC37" s="30"/>
+      <c r="BD37" s="31"/>
     </row>
     <row r="38" spans="5:56" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-      <c r="AN38" s="27"/>
-      <c r="AO38" s="23"/>
-      <c r="AP38" s="23"/>
-      <c r="AQ38" s="23"/>
-      <c r="AR38" s="23"/>
-      <c r="AS38" s="23"/>
-      <c r="AT38" s="23"/>
-      <c r="AU38" s="23"/>
-      <c r="AV38" s="28"/>
-      <c r="AW38" s="27"/>
-      <c r="AX38" s="23"/>
-      <c r="AY38" s="23"/>
-      <c r="AZ38" s="23"/>
-      <c r="BA38" s="23"/>
-      <c r="BB38" s="23"/>
-      <c r="BC38" s="23"/>
-      <c r="BD38" s="28"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="22"/>
+      <c r="AK38" s="22"/>
+      <c r="AN38" s="32"/>
+      <c r="AO38" s="33"/>
+      <c r="AP38" s="33"/>
+      <c r="AQ38" s="33"/>
+      <c r="AR38" s="33"/>
+      <c r="AS38" s="33"/>
+      <c r="AT38" s="33"/>
+      <c r="AU38" s="33"/>
+      <c r="AV38" s="34"/>
+      <c r="AW38" s="32"/>
+      <c r="AX38" s="33"/>
+      <c r="AY38" s="33"/>
+      <c r="AZ38" s="33"/>
+      <c r="BA38" s="33"/>
+      <c r="BB38" s="33"/>
+      <c r="BC38" s="33"/>
+      <c r="BD38" s="34"/>
     </row>
     <row r="39" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AN39" s="27"/>
-      <c r="AO39" s="23"/>
-      <c r="AP39" s="23"/>
-      <c r="AQ39" s="23"/>
-      <c r="AR39" s="23"/>
-      <c r="AS39" s="23"/>
-      <c r="AT39" s="23"/>
-      <c r="AU39" s="23"/>
-      <c r="AV39" s="28"/>
-      <c r="AW39" s="27"/>
-      <c r="AX39" s="23"/>
-      <c r="AY39" s="23"/>
-      <c r="AZ39" s="23"/>
-      <c r="BA39" s="23"/>
-      <c r="BB39" s="23"/>
-      <c r="BC39" s="23"/>
-      <c r="BD39" s="28"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="22"/>
+      <c r="AI39" s="22"/>
+      <c r="AJ39" s="22"/>
+      <c r="AK39" s="22"/>
+      <c r="AN39" s="32"/>
+      <c r="AO39" s="33"/>
+      <c r="AP39" s="33"/>
+      <c r="AQ39" s="33"/>
+      <c r="AR39" s="33"/>
+      <c r="AS39" s="33"/>
+      <c r="AT39" s="33"/>
+      <c r="AU39" s="33"/>
+      <c r="AV39" s="34"/>
+      <c r="AW39" s="32"/>
+      <c r="AX39" s="33"/>
+      <c r="AY39" s="33"/>
+      <c r="AZ39" s="33"/>
+      <c r="BA39" s="33"/>
+      <c r="BB39" s="33"/>
+      <c r="BC39" s="33"/>
+      <c r="BD39" s="34"/>
     </row>
     <row r="40" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="23"/>
-      <c r="AP40" s="23"/>
-      <c r="AQ40" s="23"/>
-      <c r="AR40" s="23"/>
-      <c r="AS40" s="23"/>
-      <c r="AT40" s="23"/>
-      <c r="AU40" s="23"/>
-      <c r="AV40" s="28"/>
-      <c r="AW40" s="27"/>
-      <c r="AX40" s="23"/>
-      <c r="AY40" s="23"/>
-      <c r="AZ40" s="23"/>
-      <c r="BA40" s="23"/>
-      <c r="BB40" s="23"/>
-      <c r="BC40" s="23"/>
-      <c r="BD40" s="28"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="22"/>
+      <c r="AK40" s="22"/>
+      <c r="AN40" s="32"/>
+      <c r="AO40" s="33"/>
+      <c r="AP40" s="33"/>
+      <c r="AQ40" s="33"/>
+      <c r="AR40" s="33"/>
+      <c r="AS40" s="33"/>
+      <c r="AT40" s="33"/>
+      <c r="AU40" s="33"/>
+      <c r="AV40" s="34"/>
+      <c r="AW40" s="32"/>
+      <c r="AX40" s="33"/>
+      <c r="AY40" s="33"/>
+      <c r="AZ40" s="33"/>
+      <c r="BA40" s="33"/>
+      <c r="BB40" s="33"/>
+      <c r="BC40" s="33"/>
+      <c r="BD40" s="34"/>
     </row>
     <row r="41" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="13"/>
-      <c r="AI41" s="13"/>
-      <c r="AJ41" s="13"/>
-      <c r="AK41" s="13"/>
-      <c r="AN41" s="27"/>
-      <c r="AO41" s="23"/>
-      <c r="AP41" s="23"/>
-      <c r="AQ41" s="23"/>
-      <c r="AR41" s="23"/>
-      <c r="AS41" s="23"/>
-      <c r="AT41" s="23"/>
-      <c r="AU41" s="23"/>
-      <c r="AV41" s="28"/>
-      <c r="AW41" s="27"/>
-      <c r="AX41" s="23"/>
-      <c r="AY41" s="23"/>
-      <c r="AZ41" s="23"/>
-      <c r="BA41" s="23"/>
-      <c r="BB41" s="23"/>
-      <c r="BC41" s="23"/>
-      <c r="BD41" s="28"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="22"/>
+      <c r="AH41" s="22"/>
+      <c r="AI41" s="22"/>
+      <c r="AJ41" s="22"/>
+      <c r="AK41" s="22"/>
+      <c r="AN41" s="32"/>
+      <c r="AO41" s="33"/>
+      <c r="AP41" s="33"/>
+      <c r="AQ41" s="33"/>
+      <c r="AR41" s="33"/>
+      <c r="AS41" s="33"/>
+      <c r="AT41" s="33"/>
+      <c r="AU41" s="33"/>
+      <c r="AV41" s="34"/>
+      <c r="AW41" s="32"/>
+      <c r="AX41" s="33"/>
+      <c r="AY41" s="33"/>
+      <c r="AZ41" s="33"/>
+      <c r="BA41" s="33"/>
+      <c r="BB41" s="33"/>
+      <c r="BC41" s="33"/>
+      <c r="BD41" s="34"/>
     </row>
     <row r="42" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="13"/>
-      <c r="AK42" s="13"/>
-      <c r="AN42" s="27"/>
-      <c r="AO42" s="23"/>
-      <c r="AP42" s="23"/>
-      <c r="AQ42" s="23"/>
-      <c r="AR42" s="23"/>
-      <c r="AS42" s="23"/>
-      <c r="AT42" s="23"/>
-      <c r="AU42" s="23"/>
-      <c r="AV42" s="28"/>
-      <c r="AW42" s="27"/>
-      <c r="AX42" s="23"/>
-      <c r="AY42" s="23"/>
-      <c r="AZ42" s="23"/>
-      <c r="BA42" s="23"/>
-      <c r="BB42" s="23"/>
-      <c r="BC42" s="23"/>
-      <c r="BD42" s="28"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
+      <c r="AN42" s="32"/>
+      <c r="AO42" s="33"/>
+      <c r="AP42" s="33"/>
+      <c r="AQ42" s="33"/>
+      <c r="AR42" s="33"/>
+      <c r="AS42" s="33"/>
+      <c r="AT42" s="33"/>
+      <c r="AU42" s="33"/>
+      <c r="AV42" s="34"/>
+      <c r="AW42" s="32"/>
+      <c r="AX42" s="33"/>
+      <c r="AY42" s="33"/>
+      <c r="AZ42" s="33"/>
+      <c r="BA42" s="33"/>
+      <c r="BB42" s="33"/>
+      <c r="BC42" s="33"/>
+      <c r="BD42" s="34"/>
     </row>
     <row r="43" spans="5:56" x14ac:dyDescent="0.4">
       <c r="E43" t="s">
         <v>42</v>
       </c>
-      <c r="AN43" s="27"/>
-      <c r="AO43" s="23"/>
-      <c r="AP43" s="23"/>
-      <c r="AQ43" s="23"/>
-      <c r="AR43" s="23"/>
-      <c r="AS43" s="23"/>
-      <c r="AT43" s="23"/>
-      <c r="AU43" s="23"/>
-      <c r="AV43" s="28"/>
-      <c r="AW43" s="27"/>
-      <c r="AX43" s="23"/>
-      <c r="AY43" s="23"/>
-      <c r="AZ43" s="23"/>
-      <c r="BA43" s="23"/>
-      <c r="BB43" s="23"/>
-      <c r="BC43" s="23"/>
-      <c r="BD43" s="28"/>
+      <c r="AN43" s="32"/>
+      <c r="AO43" s="33"/>
+      <c r="AP43" s="33"/>
+      <c r="AQ43" s="33"/>
+      <c r="AR43" s="33"/>
+      <c r="AS43" s="33"/>
+      <c r="AT43" s="33"/>
+      <c r="AU43" s="33"/>
+      <c r="AV43" s="34"/>
+      <c r="AW43" s="32"/>
+      <c r="AX43" s="33"/>
+      <c r="AY43" s="33"/>
+      <c r="AZ43" s="33"/>
+      <c r="BA43" s="33"/>
+      <c r="BB43" s="33"/>
+      <c r="BC43" s="33"/>
+      <c r="BD43" s="34"/>
     </row>
     <row r="44" spans="5:56" x14ac:dyDescent="0.4">
       <c r="E44" t="s">
         <v>45</v>
       </c>
       <c r="Y44" s="5"/>
-      <c r="AN44" s="27"/>
-      <c r="AO44" s="23"/>
-      <c r="AP44" s="23"/>
-      <c r="AQ44" s="23"/>
-      <c r="AR44" s="23"/>
-      <c r="AS44" s="23"/>
-      <c r="AT44" s="23"/>
-      <c r="AU44" s="23"/>
-      <c r="AV44" s="28"/>
-      <c r="AW44" s="27"/>
-      <c r="AX44" s="23"/>
-      <c r="AY44" s="23"/>
-      <c r="AZ44" s="23"/>
-      <c r="BA44" s="23"/>
-      <c r="BB44" s="23"/>
-      <c r="BC44" s="23"/>
-      <c r="BD44" s="28"/>
+      <c r="AN44" s="32"/>
+      <c r="AO44" s="33"/>
+      <c r="AP44" s="33"/>
+      <c r="AQ44" s="33"/>
+      <c r="AR44" s="33"/>
+      <c r="AS44" s="33"/>
+      <c r="AT44" s="33"/>
+      <c r="AU44" s="33"/>
+      <c r="AV44" s="34"/>
+      <c r="AW44" s="32"/>
+      <c r="AX44" s="33"/>
+      <c r="AY44" s="33"/>
+      <c r="AZ44" s="33"/>
+      <c r="BA44" s="33"/>
+      <c r="BB44" s="33"/>
+      <c r="BC44" s="33"/>
+      <c r="BD44" s="34"/>
     </row>
     <row r="45" spans="5:56" x14ac:dyDescent="0.4">
       <c r="E45" t="s">
         <v>43</v>
       </c>
-      <c r="AN45" s="27"/>
-      <c r="AO45" s="23"/>
-      <c r="AP45" s="23"/>
-      <c r="AQ45" s="23"/>
-      <c r="AR45" s="23"/>
-      <c r="AS45" s="23"/>
-      <c r="AT45" s="23"/>
-      <c r="AU45" s="23"/>
-      <c r="AV45" s="28"/>
-      <c r="AW45" s="27"/>
-      <c r="AX45" s="23"/>
-      <c r="AY45" s="23"/>
-      <c r="AZ45" s="23"/>
-      <c r="BA45" s="23"/>
-      <c r="BB45" s="23"/>
-      <c r="BC45" s="23"/>
-      <c r="BD45" s="28"/>
+      <c r="AN45" s="32"/>
+      <c r="AO45" s="33"/>
+      <c r="AP45" s="33"/>
+      <c r="AQ45" s="33"/>
+      <c r="AR45" s="33"/>
+      <c r="AS45" s="33"/>
+      <c r="AT45" s="33"/>
+      <c r="AU45" s="33"/>
+      <c r="AV45" s="34"/>
+      <c r="AW45" s="32"/>
+      <c r="AX45" s="33"/>
+      <c r="AY45" s="33"/>
+      <c r="AZ45" s="33"/>
+      <c r="BA45" s="33"/>
+      <c r="BB45" s="33"/>
+      <c r="BC45" s="33"/>
+      <c r="BD45" s="34"/>
     </row>
     <row r="46" spans="5:56" x14ac:dyDescent="0.4">
       <c r="E46" t="s">
         <v>44</v>
       </c>
-      <c r="AN46" s="29"/>
-      <c r="AO46" s="30"/>
-      <c r="AP46" s="30"/>
-      <c r="AQ46" s="30"/>
-      <c r="AR46" s="30"/>
-      <c r="AS46" s="30"/>
-      <c r="AT46" s="30"/>
-      <c r="AU46" s="30"/>
-      <c r="AV46" s="31"/>
-      <c r="AW46" s="29"/>
-      <c r="AX46" s="30"/>
-      <c r="AY46" s="30"/>
-      <c r="AZ46" s="30"/>
-      <c r="BA46" s="30"/>
-      <c r="BB46" s="30"/>
-      <c r="BC46" s="30"/>
-      <c r="BD46" s="31"/>
+      <c r="AN46" s="35"/>
+      <c r="AO46" s="36"/>
+      <c r="AP46" s="36"/>
+      <c r="AQ46" s="36"/>
+      <c r="AR46" s="36"/>
+      <c r="AS46" s="36"/>
+      <c r="AT46" s="36"/>
+      <c r="AU46" s="36"/>
+      <c r="AV46" s="37"/>
+      <c r="AW46" s="35"/>
+      <c r="AX46" s="36"/>
+      <c r="AY46" s="36"/>
+      <c r="AZ46" s="36"/>
+      <c r="BA46" s="36"/>
+      <c r="BB46" s="36"/>
+      <c r="BC46" s="36"/>
+      <c r="BD46" s="37"/>
     </row>
     <row r="47" spans="5:56" x14ac:dyDescent="0.4">
       <c r="E47" t="s">
         <v>41</v>
       </c>
-      <c r="AN47" s="22" t="s">
+      <c r="AN47" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5627,33 +6115,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C16:X17"/>
-    <mergeCell ref="C15:X15"/>
-    <mergeCell ref="AN36:AV36"/>
-    <mergeCell ref="AW36:BD36"/>
-    <mergeCell ref="AN37:AV46"/>
-    <mergeCell ref="AW37:BD46"/>
-    <mergeCell ref="T6:AN6"/>
-    <mergeCell ref="AN21:BD21"/>
-    <mergeCell ref="AN22:BD31"/>
-    <mergeCell ref="E22:AK42"/>
-    <mergeCell ref="E21:AK21"/>
-    <mergeCell ref="AN35:BD35"/>
-    <mergeCell ref="D19:U19"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="T5:AN5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="C9:J9"/>
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="C11:L11"/>
     <mergeCell ref="M11:T11"/>
@@ -5664,10 +6125,1609 @@
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="L4:S4"/>
     <mergeCell ref="T4:AN4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="T5:AN5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="T6:AN6"/>
+    <mergeCell ref="AN21:BD21"/>
+    <mergeCell ref="AN22:BD31"/>
+    <mergeCell ref="E22:AK42"/>
+    <mergeCell ref="E21:AK21"/>
+    <mergeCell ref="AN35:BD35"/>
+    <mergeCell ref="D19:U19"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C16:X17"/>
+    <mergeCell ref="C15:X15"/>
+    <mergeCell ref="AN36:AV36"/>
+    <mergeCell ref="AW36:BD36"/>
+    <mergeCell ref="AN37:AV46"/>
+    <mergeCell ref="AW37:BD46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326698FE-5961-4F1E-AD7D-F9513DA3EB28}">
+  <dimension ref="A1:AN47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="18" max="19" width="4.125" customWidth="1"/>
+    <col min="31" max="31" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+    </row>
+    <row r="3" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+    </row>
+    <row r="4" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+    </row>
+    <row r="5" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+    </row>
+    <row r="6" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+    </row>
+    <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18">
+        <v>44057</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20">
+        <v>44064</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+    </row>
+    <row r="12" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+    </row>
+    <row r="13" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+    </row>
+    <row r="14" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+    </row>
+    <row r="15" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+    </row>
+    <row r="16" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+    </row>
+    <row r="17" spans="1:39" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:39" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+    </row>
+    <row r="20" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="43"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="31"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="33"/>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="33"/>
+      <c r="AM22" s="34"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="33"/>
+      <c r="AM23" s="34"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="33"/>
+      <c r="AM24" s="34"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="33"/>
+      <c r="AI25" s="33"/>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="33"/>
+      <c r="AM25" s="34"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="33"/>
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="33"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="34"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="33"/>
+      <c r="AM27" s="34"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="33"/>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="33"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="33"/>
+      <c r="AM28" s="34"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="33"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="33"/>
+      <c r="AK29" s="33"/>
+      <c r="AL29" s="33"/>
+      <c r="AM29" s="34"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="33"/>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="33"/>
+      <c r="AF30" s="33"/>
+      <c r="AG30" s="33"/>
+      <c r="AH30" s="33"/>
+      <c r="AI30" s="33"/>
+      <c r="AJ30" s="33"/>
+      <c r="AK30" s="33"/>
+      <c r="AL30" s="33"/>
+      <c r="AM30" s="34"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E31" s="32"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="33"/>
+      <c r="AH31" s="33"/>
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="33"/>
+      <c r="AK31" s="33"/>
+      <c r="AL31" s="33"/>
+      <c r="AM31" s="34"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="33"/>
+      <c r="AH32" s="33"/>
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="33"/>
+      <c r="AK32" s="33"/>
+      <c r="AL32" s="33"/>
+      <c r="AM32" s="34"/>
+    </row>
+    <row r="33" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E33" s="32"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="33"/>
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="33"/>
+      <c r="AK33" s="33"/>
+      <c r="AL33" s="33"/>
+      <c r="AM33" s="34"/>
+    </row>
+    <row r="34" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="33"/>
+      <c r="AG34" s="33"/>
+      <c r="AH34" s="33"/>
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="33"/>
+      <c r="AK34" s="33"/>
+      <c r="AL34" s="33"/>
+      <c r="AM34" s="34"/>
+    </row>
+    <row r="35" spans="5:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="33"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="34"/>
+    </row>
+    <row r="36" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="33"/>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="33"/>
+      <c r="AM36" s="34"/>
+    </row>
+    <row r="37" spans="5:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="33"/>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="33"/>
+      <c r="AK37" s="33"/>
+      <c r="AL37" s="33"/>
+      <c r="AM37" s="34"/>
+    </row>
+    <row r="38" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E38" s="32"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33"/>
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="33"/>
+      <c r="AH38" s="33"/>
+      <c r="AI38" s="33"/>
+      <c r="AJ38" s="33"/>
+      <c r="AK38" s="33"/>
+      <c r="AL38" s="33"/>
+      <c r="AM38" s="34"/>
+    </row>
+    <row r="39" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="33"/>
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="33"/>
+      <c r="AK39" s="33"/>
+      <c r="AL39" s="33"/>
+      <c r="AM39" s="34"/>
+    </row>
+    <row r="40" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="33"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="33"/>
+      <c r="AG40" s="33"/>
+      <c r="AH40" s="33"/>
+      <c r="AI40" s="33"/>
+      <c r="AJ40" s="33"/>
+      <c r="AK40" s="33"/>
+      <c r="AL40" s="33"/>
+      <c r="AM40" s="34"/>
+    </row>
+    <row r="41" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36"/>
+      <c r="AH41" s="36"/>
+      <c r="AI41" s="36"/>
+      <c r="AJ41" s="36"/>
+      <c r="AK41" s="36"/>
+      <c r="AL41" s="36"/>
+      <c r="AM41" s="37"/>
+    </row>
+    <row r="42" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y43" s="5"/>
+    </row>
+    <row r="44" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="AN47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E21:AM41"/>
+    <mergeCell ref="E20:AM20"/>
+    <mergeCell ref="C13:X13"/>
+    <mergeCell ref="C14:X16"/>
+    <mergeCell ref="D18:U18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="L3:S3"/>
+    <mergeCell ref="T3:AN3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="T4:AN4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/発注資料/【AML】エフェクト発注書.xlsx
+++ b/発注資料/【AML】エフェクト発注書.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSMS\Documents\AMAZURU\発注資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\GitHub\AMAZURU_Document\発注資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426B90EF-C3C1-4BE7-BDED-192E95E89D34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{359FCBFF-F97E-4550-BAA7-9042CF709F7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="音符" sheetId="1" r:id="rId1"/>
     <sheet name="跳水" sheetId="2" r:id="rId2"/>
     <sheet name="帯電" sheetId="3" r:id="rId3"/>
+    <sheet name="アメフラシ全起動" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -736,11 +736,49 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>　UIエフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI_アメフラシ全起動</t>
+    <rPh sb="8" eb="9">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> アメフラシが全て起動することで発生するエフェクトになります。</t>
+    <rPh sb="7" eb="8">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面右上のアメフラシUI</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eff_UI_AmfAllOn</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -992,7 +1030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,11 +1076,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1056,17 +1100,20 @@
     <xf numFmtId="56" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1107,15 +1154,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,6 +1162,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1731,8 +1772,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1145078" y="5394820"/>
-          <a:ext cx="8016553" cy="4748647"/>
+          <a:off x="1123950" y="5553074"/>
+          <a:ext cx="7888110" cy="4800601"/>
           <a:chOff x="530521" y="4254232"/>
           <a:chExt cx="10289609" cy="6333501"/>
         </a:xfrm>
@@ -2178,8 +2219,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9773413" y="9248602"/>
-          <a:ext cx="2076795" cy="1818687"/>
+          <a:off x="9613901" y="9448800"/>
+          <a:ext cx="2038349" cy="1838326"/>
           <a:chOff x="9534526" y="9458325"/>
           <a:chExt cx="2038349" cy="1838326"/>
         </a:xfrm>
@@ -2727,6 +2768,215 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2751D224-EF4A-4169-810C-3D5F00F9FDFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="5255895"/>
+          <a:ext cx="621030" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>93345</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C75A0C-7A6F-403E-A10A-9EEABE111211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1045845" y="7877175"/>
+          <a:ext cx="621030" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF9D4CC-0008-44D2-8666-8F10E4C46C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314950" y="5189220"/>
+          <a:ext cx="621030" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3023,11 +3273,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406211D0-1E29-4520-8FFA-447FC35F495E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3036,25 +3286,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
@@ -3125,49 +3375,49 @@
       <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16" t="s">
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
     </row>
     <row r="4" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -3175,49 +3425,49 @@
       <c r="C4" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17" t="s">
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
     </row>
     <row r="5" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
@@ -3263,26 +3513,26 @@
     <row r="6" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
@@ -3308,26 +3558,26 @@
     <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
@@ -3380,28 +3630,28 @@
     <row r="9" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -3411,30 +3661,30 @@
     <row r="10" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20">
         <v>43980</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -3458,30 +3708,30 @@
     <row r="11" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22">
         <v>43984</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
@@ -3565,483 +3815,483 @@
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.4">
       <c r="Y16" s="5"/>
     </row>
     <row r="17" spans="5:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="V17" s="21" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="V17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
     </row>
     <row r="18" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
     </row>
     <row r="19" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
     </row>
     <row r="20" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="22"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
     </row>
     <row r="21" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
     </row>
     <row r="22" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
     </row>
     <row r="23" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
     </row>
     <row r="24" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
     </row>
     <row r="25" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="22"/>
-      <c r="AG25" s="22"/>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="22"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
     </row>
     <row r="26" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
-      <c r="AE26" s="22"/>
-      <c r="AF26" s="22"/>
-      <c r="AG26" s="22"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="22"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
     </row>
     <row r="27" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
     </row>
     <row r="28" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
     </row>
     <row r="29" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="22"/>
-      <c r="AI29" s="22"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
     </row>
     <row r="30" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="22"/>
-      <c r="AH30" s="22"/>
-      <c r="AI30" s="22"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
     </row>
     <row r="31" spans="5:35" x14ac:dyDescent="0.4">
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="22"/>
-      <c r="AH31" s="22"/>
-      <c r="AI31" s="22"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
     </row>
     <row r="32" spans="5:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E32" t="s">
@@ -4110,23 +4360,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E17:R17"/>
-    <mergeCell ref="E18:R31"/>
-    <mergeCell ref="V17:AI17"/>
-    <mergeCell ref="V18:AI31"/>
-    <mergeCell ref="D14:U14"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="M9:T9"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="L3:S3"/>
@@ -4134,6 +4367,23 @@
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="L4:S4"/>
     <mergeCell ref="T4:AN4"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="E17:R17"/>
+    <mergeCell ref="E18:R31"/>
+    <mergeCell ref="V17:AI17"/>
+    <mergeCell ref="V18:AI31"/>
+    <mergeCell ref="D14:U14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4143,11 +4393,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFB7710-9CB8-41B6-9C4D-535D8B45CDC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4157,25 +4407,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
@@ -4246,49 +4496,49 @@
       <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16" t="s">
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
     </row>
     <row r="4" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -4296,49 +4546,49 @@
       <c r="C4" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24" t="s">
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
     </row>
     <row r="5" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
@@ -4346,49 +4596,49 @@
       <c r="C5" s="14">
         <v>2</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24" t="s">
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
     </row>
     <row r="6" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
@@ -4396,49 +4646,49 @@
       <c r="C6" s="14">
         <v>3</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24" t="s">
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
     </row>
     <row r="7" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
@@ -4484,26 +4734,26 @@
     <row r="8" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
@@ -4529,26 +4779,26 @@
     <row r="9" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -4585,28 +4835,28 @@
     <row r="11" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
@@ -4615,30 +4865,30 @@
     <row r="12" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20">
         <v>43994</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17" t="s">
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -4647,30 +4897,30 @@
     <row r="13" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22">
         <v>43997</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="39" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
@@ -4735,30 +4985,30 @@
     <row r="15" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -4778,30 +5028,30 @@
     <row r="16" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -4821,28 +5071,28 @@
     <row r="17" spans="1:56" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -4881,1224 +5131,1224 @@
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
     </row>
     <row r="21" spans="1:56" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="21"/>
-      <c r="AJ21" s="21"/>
-      <c r="AK21" s="21"/>
-      <c r="AN21" s="38" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AN21" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="AZ21" s="38"/>
-      <c r="BA21" s="38"/>
-      <c r="BB21" s="38"/>
-      <c r="BC21" s="38"/>
-      <c r="BD21" s="38"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="26"/>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="26"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="26"/>
+      <c r="AY21" s="26"/>
+      <c r="AZ21" s="26"/>
+      <c r="BA21" s="26"/>
+      <c r="BB21" s="26"/>
+      <c r="BC21" s="26"/>
+      <c r="BD21" s="26"/>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="22"/>
-      <c r="AN22" s="22"/>
-      <c r="AO22" s="22"/>
-      <c r="AP22" s="22"/>
-      <c r="AQ22" s="22"/>
-      <c r="AR22" s="22"/>
-      <c r="AS22" s="22"/>
-      <c r="AT22" s="22"/>
-      <c r="AU22" s="22"/>
-      <c r="AV22" s="22"/>
-      <c r="AW22" s="22"/>
-      <c r="AX22" s="22"/>
-      <c r="AY22" s="22"/>
-      <c r="AZ22" s="22"/>
-      <c r="BA22" s="22"/>
-      <c r="BB22" s="22"/>
-      <c r="BC22" s="22"/>
-      <c r="BD22" s="22"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="17"/>
+      <c r="BD22" s="17"/>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="22"/>
-      <c r="AN23" s="22"/>
-      <c r="AO23" s="22"/>
-      <c r="AP23" s="22"/>
-      <c r="AQ23" s="22"/>
-      <c r="AR23" s="22"/>
-      <c r="AS23" s="22"/>
-      <c r="AT23" s="22"/>
-      <c r="AU23" s="22"/>
-      <c r="AV23" s="22"/>
-      <c r="AW23" s="22"/>
-      <c r="AX23" s="22"/>
-      <c r="AY23" s="22"/>
-      <c r="AZ23" s="22"/>
-      <c r="BA23" s="22"/>
-      <c r="BB23" s="22"/>
-      <c r="BC23" s="22"/>
-      <c r="BD23" s="22"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="17"/>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="22"/>
-      <c r="AN24" s="22"/>
-      <c r="AO24" s="22"/>
-      <c r="AP24" s="22"/>
-      <c r="AQ24" s="22"/>
-      <c r="AR24" s="22"/>
-      <c r="AS24" s="22"/>
-      <c r="AT24" s="22"/>
-      <c r="AU24" s="22"/>
-      <c r="AV24" s="22"/>
-      <c r="AW24" s="22"/>
-      <c r="AX24" s="22"/>
-      <c r="AY24" s="22"/>
-      <c r="AZ24" s="22"/>
-      <c r="BA24" s="22"/>
-      <c r="BB24" s="22"/>
-      <c r="BC24" s="22"/>
-      <c r="BD24" s="22"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="22"/>
-      <c r="AG25" s="22"/>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="22"/>
-      <c r="AJ25" s="22"/>
-      <c r="AK25" s="22"/>
-      <c r="AN25" s="22"/>
-      <c r="AO25" s="22"/>
-      <c r="AP25" s="22"/>
-      <c r="AQ25" s="22"/>
-      <c r="AR25" s="22"/>
-      <c r="AS25" s="22"/>
-      <c r="AT25" s="22"/>
-      <c r="AU25" s="22"/>
-      <c r="AV25" s="22"/>
-      <c r="AW25" s="22"/>
-      <c r="AX25" s="22"/>
-      <c r="AY25" s="22"/>
-      <c r="AZ25" s="22"/>
-      <c r="BA25" s="22"/>
-      <c r="BB25" s="22"/>
-      <c r="BC25" s="22"/>
-      <c r="BD25" s="22"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="17"/>
+      <c r="AR25" s="17"/>
+      <c r="AS25" s="17"/>
+      <c r="AT25" s="17"/>
+      <c r="AU25" s="17"/>
+      <c r="AV25" s="17"/>
+      <c r="AW25" s="17"/>
+      <c r="AX25" s="17"/>
+      <c r="AY25" s="17"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="17"/>
+      <c r="BB25" s="17"/>
+      <c r="BC25" s="17"/>
+      <c r="BD25" s="17"/>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
-      <c r="AE26" s="22"/>
-      <c r="AF26" s="22"/>
-      <c r="AG26" s="22"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="22"/>
-      <c r="AJ26" s="22"/>
-      <c r="AK26" s="22"/>
-      <c r="AN26" s="22"/>
-      <c r="AO26" s="22"/>
-      <c r="AP26" s="22"/>
-      <c r="AQ26" s="22"/>
-      <c r="AR26" s="22"/>
-      <c r="AS26" s="22"/>
-      <c r="AT26" s="22"/>
-      <c r="AU26" s="22"/>
-      <c r="AV26" s="22"/>
-      <c r="AW26" s="22"/>
-      <c r="AX26" s="22"/>
-      <c r="AY26" s="22"/>
-      <c r="AZ26" s="22"/>
-      <c r="BA26" s="22"/>
-      <c r="BB26" s="22"/>
-      <c r="BC26" s="22"/>
-      <c r="BD26" s="22"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="17"/>
+      <c r="AT26" s="17"/>
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="17"/>
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="17"/>
+      <c r="AY26" s="17"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="17"/>
+      <c r="BD26" s="17"/>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="22"/>
-      <c r="AN27" s="22"/>
-      <c r="AO27" s="22"/>
-      <c r="AP27" s="22"/>
-      <c r="AQ27" s="22"/>
-      <c r="AR27" s="22"/>
-      <c r="AS27" s="22"/>
-      <c r="AT27" s="22"/>
-      <c r="AU27" s="22"/>
-      <c r="AV27" s="22"/>
-      <c r="AW27" s="22"/>
-      <c r="AX27" s="22"/>
-      <c r="AY27" s="22"/>
-      <c r="AZ27" s="22"/>
-      <c r="BA27" s="22"/>
-      <c r="BB27" s="22"/>
-      <c r="BC27" s="22"/>
-      <c r="BD27" s="22"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="17"/>
+      <c r="AQ27" s="17"/>
+      <c r="AR27" s="17"/>
+      <c r="AS27" s="17"/>
+      <c r="AT27" s="17"/>
+      <c r="AU27" s="17"/>
+      <c r="AV27" s="17"/>
+      <c r="AW27" s="17"/>
+      <c r="AX27" s="17"/>
+      <c r="AY27" s="17"/>
+      <c r="AZ27" s="17"/>
+      <c r="BA27" s="17"/>
+      <c r="BB27" s="17"/>
+      <c r="BC27" s="17"/>
+      <c r="BD27" s="17"/>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="22"/>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="22"/>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
-      <c r="AX28" s="22"/>
-      <c r="AY28" s="22"/>
-      <c r="AZ28" s="22"/>
-      <c r="BA28" s="22"/>
-      <c r="BB28" s="22"/>
-      <c r="BC28" s="22"/>
-      <c r="BD28" s="22"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
+      <c r="AQ28" s="17"/>
+      <c r="AR28" s="17"/>
+      <c r="AS28" s="17"/>
+      <c r="AT28" s="17"/>
+      <c r="AU28" s="17"/>
+      <c r="AV28" s="17"/>
+      <c r="AW28" s="17"/>
+      <c r="AX28" s="17"/>
+      <c r="AY28" s="17"/>
+      <c r="AZ28" s="17"/>
+      <c r="BA28" s="17"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="17"/>
+      <c r="BD28" s="17"/>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="22"/>
-      <c r="AI29" s="22"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="22"/>
-      <c r="AN29" s="22"/>
-      <c r="AO29" s="22"/>
-      <c r="AP29" s="22"/>
-      <c r="AQ29" s="22"/>
-      <c r="AR29" s="22"/>
-      <c r="AS29" s="22"/>
-      <c r="AT29" s="22"/>
-      <c r="AU29" s="22"/>
-      <c r="AV29" s="22"/>
-      <c r="AW29" s="22"/>
-      <c r="AX29" s="22"/>
-      <c r="AY29" s="22"/>
-      <c r="AZ29" s="22"/>
-      <c r="BA29" s="22"/>
-      <c r="BB29" s="22"/>
-      <c r="BC29" s="22"/>
-      <c r="BD29" s="22"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AN29" s="17"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17"/>
+      <c r="AQ29" s="17"/>
+      <c r="AR29" s="17"/>
+      <c r="AS29" s="17"/>
+      <c r="AT29" s="17"/>
+      <c r="AU29" s="17"/>
+      <c r="AV29" s="17"/>
+      <c r="AW29" s="17"/>
+      <c r="AX29" s="17"/>
+      <c r="AY29" s="17"/>
+      <c r="AZ29" s="17"/>
+      <c r="BA29" s="17"/>
+      <c r="BB29" s="17"/>
+      <c r="BC29" s="17"/>
+      <c r="BD29" s="17"/>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="22"/>
-      <c r="AH30" s="22"/>
-      <c r="AI30" s="22"/>
-      <c r="AJ30" s="22"/>
-      <c r="AK30" s="22"/>
-      <c r="AN30" s="22"/>
-      <c r="AO30" s="22"/>
-      <c r="AP30" s="22"/>
-      <c r="AQ30" s="22"/>
-      <c r="AR30" s="22"/>
-      <c r="AS30" s="22"/>
-      <c r="AT30" s="22"/>
-      <c r="AU30" s="22"/>
-      <c r="AV30" s="22"/>
-      <c r="AW30" s="22"/>
-      <c r="AX30" s="22"/>
-      <c r="AY30" s="22"/>
-      <c r="AZ30" s="22"/>
-      <c r="BA30" s="22"/>
-      <c r="BB30" s="22"/>
-      <c r="BC30" s="22"/>
-      <c r="BD30" s="22"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="17"/>
+      <c r="AP30" s="17"/>
+      <c r="AQ30" s="17"/>
+      <c r="AR30" s="17"/>
+      <c r="AS30" s="17"/>
+      <c r="AT30" s="17"/>
+      <c r="AU30" s="17"/>
+      <c r="AV30" s="17"/>
+      <c r="AW30" s="17"/>
+      <c r="AX30" s="17"/>
+      <c r="AY30" s="17"/>
+      <c r="AZ30" s="17"/>
+      <c r="BA30" s="17"/>
+      <c r="BB30" s="17"/>
+      <c r="BC30" s="17"/>
+      <c r="BD30" s="17"/>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="22"/>
-      <c r="AH31" s="22"/>
-      <c r="AI31" s="22"/>
-      <c r="AJ31" s="22"/>
-      <c r="AK31" s="22"/>
-      <c r="AN31" s="22"/>
-      <c r="AO31" s="22"/>
-      <c r="AP31" s="22"/>
-      <c r="AQ31" s="22"/>
-      <c r="AR31" s="22"/>
-      <c r="AS31" s="22"/>
-      <c r="AT31" s="22"/>
-      <c r="AU31" s="22"/>
-      <c r="AV31" s="22"/>
-      <c r="AW31" s="22"/>
-      <c r="AX31" s="22"/>
-      <c r="AY31" s="22"/>
-      <c r="AZ31" s="22"/>
-      <c r="BA31" s="22"/>
-      <c r="BB31" s="22"/>
-      <c r="BC31" s="22"/>
-      <c r="BD31" s="22"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AN31" s="17"/>
+      <c r="AO31" s="17"/>
+      <c r="AP31" s="17"/>
+      <c r="AQ31" s="17"/>
+      <c r="AR31" s="17"/>
+      <c r="AS31" s="17"/>
+      <c r="AT31" s="17"/>
+      <c r="AU31" s="17"/>
+      <c r="AV31" s="17"/>
+      <c r="AW31" s="17"/>
+      <c r="AX31" s="17"/>
+      <c r="AY31" s="17"/>
+      <c r="AZ31" s="17"/>
+      <c r="BA31" s="17"/>
+      <c r="BB31" s="17"/>
+      <c r="BC31" s="17"/>
+      <c r="BD31" s="17"/>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
-      <c r="AH32" s="22"/>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="22"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
       <c r="AN32" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
-      <c r="AG33" s="22"/>
-      <c r="AH33" s="22"/>
-      <c r="AI33" s="22"/>
-      <c r="AJ33" s="22"/>
-      <c r="AK33" s="22"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
       <c r="AN33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="22"/>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="22"/>
-      <c r="AI34" s="22"/>
-      <c r="AJ34" s="22"/>
-      <c r="AK34" s="22"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
     </row>
     <row r="35" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="22"/>
-      <c r="AG35" s="22"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="22"/>
-      <c r="AN35" s="38" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AN35" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AO35" s="38"/>
-      <c r="AP35" s="38"/>
-      <c r="AQ35" s="38"/>
-      <c r="AR35" s="38"/>
-      <c r="AS35" s="38"/>
-      <c r="AT35" s="38"/>
-      <c r="AU35" s="38"/>
-      <c r="AV35" s="38"/>
-      <c r="AW35" s="38"/>
-      <c r="AX35" s="38"/>
-      <c r="AY35" s="38"/>
-      <c r="AZ35" s="38"/>
-      <c r="BA35" s="38"/>
-      <c r="BB35" s="38"/>
-      <c r="BC35" s="38"/>
-      <c r="BD35" s="38"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="26"/>
+      <c r="AT35" s="26"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="26"/>
+      <c r="AZ35" s="26"/>
+      <c r="BA35" s="26"/>
+      <c r="BB35" s="26"/>
+      <c r="BC35" s="26"/>
+      <c r="BD35" s="26"/>
     </row>
     <row r="36" spans="5:56" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="22"/>
-      <c r="AH36" s="22"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
-      <c r="AK36" s="22"/>
-      <c r="AN36" s="25" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AN36" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AO36" s="25"/>
-      <c r="AP36" s="25"/>
-      <c r="AQ36" s="25"/>
-      <c r="AR36" s="25"/>
-      <c r="AS36" s="25"/>
-      <c r="AT36" s="25"/>
-      <c r="AU36" s="25"/>
-      <c r="AV36" s="25"/>
-      <c r="AW36" s="26" t="s">
+      <c r="AO36" s="28"/>
+      <c r="AP36" s="28"/>
+      <c r="AQ36" s="28"/>
+      <c r="AR36" s="28"/>
+      <c r="AS36" s="28"/>
+      <c r="AT36" s="28"/>
+      <c r="AU36" s="28"/>
+      <c r="AV36" s="28"/>
+      <c r="AW36" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AX36" s="27"/>
-      <c r="AY36" s="27"/>
-      <c r="AZ36" s="27"/>
-      <c r="BA36" s="27"/>
-      <c r="BB36" s="27"/>
-      <c r="BC36" s="27"/>
-      <c r="BD36" s="28"/>
+      <c r="AX36" s="30"/>
+      <c r="AY36" s="30"/>
+      <c r="AZ36" s="30"/>
+      <c r="BA36" s="30"/>
+      <c r="BB36" s="30"/>
+      <c r="BC36" s="30"/>
+      <c r="BD36" s="31"/>
     </row>
     <row r="37" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="22"/>
-      <c r="AJ37" s="22"/>
-      <c r="AK37" s="22"/>
-      <c r="AN37" s="29"/>
-      <c r="AO37" s="30"/>
-      <c r="AP37" s="30"/>
-      <c r="AQ37" s="30"/>
-      <c r="AR37" s="30"/>
-      <c r="AS37" s="30"/>
-      <c r="AT37" s="30"/>
-      <c r="AU37" s="30"/>
-      <c r="AV37" s="31"/>
-      <c r="AW37" s="29"/>
-      <c r="AX37" s="30"/>
-      <c r="AY37" s="30"/>
-      <c r="AZ37" s="30"/>
-      <c r="BA37" s="30"/>
-      <c r="BB37" s="30"/>
-      <c r="BC37" s="30"/>
-      <c r="BD37" s="31"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AN37" s="32"/>
+      <c r="AO37" s="33"/>
+      <c r="AP37" s="33"/>
+      <c r="AQ37" s="33"/>
+      <c r="AR37" s="33"/>
+      <c r="AS37" s="33"/>
+      <c r="AT37" s="33"/>
+      <c r="AU37" s="33"/>
+      <c r="AV37" s="34"/>
+      <c r="AW37" s="32"/>
+      <c r="AX37" s="33"/>
+      <c r="AY37" s="33"/>
+      <c r="AZ37" s="33"/>
+      <c r="BA37" s="33"/>
+      <c r="BB37" s="33"/>
+      <c r="BC37" s="33"/>
+      <c r="BD37" s="34"/>
     </row>
     <row r="38" spans="5:56" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
-      <c r="AK38" s="22"/>
-      <c r="AN38" s="32"/>
-      <c r="AO38" s="33"/>
-      <c r="AP38" s="33"/>
-      <c r="AQ38" s="33"/>
-      <c r="AR38" s="33"/>
-      <c r="AS38" s="33"/>
-      <c r="AT38" s="33"/>
-      <c r="AU38" s="33"/>
-      <c r="AV38" s="34"/>
-      <c r="AW38" s="32"/>
-      <c r="AX38" s="33"/>
-      <c r="AY38" s="33"/>
-      <c r="AZ38" s="33"/>
-      <c r="BA38" s="33"/>
-      <c r="BB38" s="33"/>
-      <c r="BC38" s="33"/>
-      <c r="BD38" s="34"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="36"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="36"/>
+      <c r="AR38" s="36"/>
+      <c r="AS38" s="36"/>
+      <c r="AT38" s="36"/>
+      <c r="AU38" s="36"/>
+      <c r="AV38" s="37"/>
+      <c r="AW38" s="35"/>
+      <c r="AX38" s="36"/>
+      <c r="AY38" s="36"/>
+      <c r="AZ38" s="36"/>
+      <c r="BA38" s="36"/>
+      <c r="BB38" s="36"/>
+      <c r="BC38" s="36"/>
+      <c r="BD38" s="37"/>
     </row>
     <row r="39" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="22"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="22"/>
-      <c r="AG39" s="22"/>
-      <c r="AH39" s="22"/>
-      <c r="AI39" s="22"/>
-      <c r="AJ39" s="22"/>
-      <c r="AK39" s="22"/>
-      <c r="AN39" s="32"/>
-      <c r="AO39" s="33"/>
-      <c r="AP39" s="33"/>
-      <c r="AQ39" s="33"/>
-      <c r="AR39" s="33"/>
-      <c r="AS39" s="33"/>
-      <c r="AT39" s="33"/>
-      <c r="AU39" s="33"/>
-      <c r="AV39" s="34"/>
-      <c r="AW39" s="32"/>
-      <c r="AX39" s="33"/>
-      <c r="AY39" s="33"/>
-      <c r="AZ39" s="33"/>
-      <c r="BA39" s="33"/>
-      <c r="BB39" s="33"/>
-      <c r="BC39" s="33"/>
-      <c r="BD39" s="34"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17"/>
+      <c r="AN39" s="35"/>
+      <c r="AO39" s="36"/>
+      <c r="AP39" s="36"/>
+      <c r="AQ39" s="36"/>
+      <c r="AR39" s="36"/>
+      <c r="AS39" s="36"/>
+      <c r="AT39" s="36"/>
+      <c r="AU39" s="36"/>
+      <c r="AV39" s="37"/>
+      <c r="AW39" s="35"/>
+      <c r="AX39" s="36"/>
+      <c r="AY39" s="36"/>
+      <c r="AZ39" s="36"/>
+      <c r="BA39" s="36"/>
+      <c r="BB39" s="36"/>
+      <c r="BC39" s="36"/>
+      <c r="BD39" s="37"/>
     </row>
     <row r="40" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="22"/>
-      <c r="AG40" s="22"/>
-      <c r="AH40" s="22"/>
-      <c r="AI40" s="22"/>
-      <c r="AJ40" s="22"/>
-      <c r="AK40" s="22"/>
-      <c r="AN40" s="32"/>
-      <c r="AO40" s="33"/>
-      <c r="AP40" s="33"/>
-      <c r="AQ40" s="33"/>
-      <c r="AR40" s="33"/>
-      <c r="AS40" s="33"/>
-      <c r="AT40" s="33"/>
-      <c r="AU40" s="33"/>
-      <c r="AV40" s="34"/>
-      <c r="AW40" s="32"/>
-      <c r="AX40" s="33"/>
-      <c r="AY40" s="33"/>
-      <c r="AZ40" s="33"/>
-      <c r="BA40" s="33"/>
-      <c r="BB40" s="33"/>
-      <c r="BC40" s="33"/>
-      <c r="BD40" s="34"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+      <c r="AN40" s="35"/>
+      <c r="AO40" s="36"/>
+      <c r="AP40" s="36"/>
+      <c r="AQ40" s="36"/>
+      <c r="AR40" s="36"/>
+      <c r="AS40" s="36"/>
+      <c r="AT40" s="36"/>
+      <c r="AU40" s="36"/>
+      <c r="AV40" s="37"/>
+      <c r="AW40" s="35"/>
+      <c r="AX40" s="36"/>
+      <c r="AY40" s="36"/>
+      <c r="AZ40" s="36"/>
+      <c r="BA40" s="36"/>
+      <c r="BB40" s="36"/>
+      <c r="BC40" s="36"/>
+      <c r="BD40" s="37"/>
     </row>
     <row r="41" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="22"/>
-      <c r="AC41" s="22"/>
-      <c r="AD41" s="22"/>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="22"/>
-      <c r="AG41" s="22"/>
-      <c r="AH41" s="22"/>
-      <c r="AI41" s="22"/>
-      <c r="AJ41" s="22"/>
-      <c r="AK41" s="22"/>
-      <c r="AN41" s="32"/>
-      <c r="AO41" s="33"/>
-      <c r="AP41" s="33"/>
-      <c r="AQ41" s="33"/>
-      <c r="AR41" s="33"/>
-      <c r="AS41" s="33"/>
-      <c r="AT41" s="33"/>
-      <c r="AU41" s="33"/>
-      <c r="AV41" s="34"/>
-      <c r="AW41" s="32"/>
-      <c r="AX41" s="33"/>
-      <c r="AY41" s="33"/>
-      <c r="AZ41" s="33"/>
-      <c r="BA41" s="33"/>
-      <c r="BB41" s="33"/>
-      <c r="BC41" s="33"/>
-      <c r="BD41" s="34"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+      <c r="AN41" s="35"/>
+      <c r="AO41" s="36"/>
+      <c r="AP41" s="36"/>
+      <c r="AQ41" s="36"/>
+      <c r="AR41" s="36"/>
+      <c r="AS41" s="36"/>
+      <c r="AT41" s="36"/>
+      <c r="AU41" s="36"/>
+      <c r="AV41" s="37"/>
+      <c r="AW41" s="35"/>
+      <c r="AX41" s="36"/>
+      <c r="AY41" s="36"/>
+      <c r="AZ41" s="36"/>
+      <c r="BA41" s="36"/>
+      <c r="BB41" s="36"/>
+      <c r="BC41" s="36"/>
+      <c r="BD41" s="37"/>
     </row>
     <row r="42" spans="5:56" x14ac:dyDescent="0.4">
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="22"/>
-      <c r="AC42" s="22"/>
-      <c r="AD42" s="22"/>
-      <c r="AE42" s="22"/>
-      <c r="AF42" s="22"/>
-      <c r="AG42" s="22"/>
-      <c r="AH42" s="22"/>
-      <c r="AI42" s="22"/>
-      <c r="AJ42" s="22"/>
-      <c r="AK42" s="22"/>
-      <c r="AN42" s="32"/>
-      <c r="AO42" s="33"/>
-      <c r="AP42" s="33"/>
-      <c r="AQ42" s="33"/>
-      <c r="AR42" s="33"/>
-      <c r="AS42" s="33"/>
-      <c r="AT42" s="33"/>
-      <c r="AU42" s="33"/>
-      <c r="AV42" s="34"/>
-      <c r="AW42" s="32"/>
-      <c r="AX42" s="33"/>
-      <c r="AY42" s="33"/>
-      <c r="AZ42" s="33"/>
-      <c r="BA42" s="33"/>
-      <c r="BB42" s="33"/>
-      <c r="BC42" s="33"/>
-      <c r="BD42" s="34"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+      <c r="AN42" s="35"/>
+      <c r="AO42" s="36"/>
+      <c r="AP42" s="36"/>
+      <c r="AQ42" s="36"/>
+      <c r="AR42" s="36"/>
+      <c r="AS42" s="36"/>
+      <c r="AT42" s="36"/>
+      <c r="AU42" s="36"/>
+      <c r="AV42" s="37"/>
+      <c r="AW42" s="35"/>
+      <c r="AX42" s="36"/>
+      <c r="AY42" s="36"/>
+      <c r="AZ42" s="36"/>
+      <c r="BA42" s="36"/>
+      <c r="BB42" s="36"/>
+      <c r="BC42" s="36"/>
+      <c r="BD42" s="37"/>
     </row>
     <row r="43" spans="5:56" x14ac:dyDescent="0.4">
       <c r="E43" t="s">
         <v>42</v>
       </c>
-      <c r="AN43" s="32"/>
-      <c r="AO43" s="33"/>
-      <c r="AP43" s="33"/>
-      <c r="AQ43" s="33"/>
-      <c r="AR43" s="33"/>
-      <c r="AS43" s="33"/>
-      <c r="AT43" s="33"/>
-      <c r="AU43" s="33"/>
-      <c r="AV43" s="34"/>
-      <c r="AW43" s="32"/>
-      <c r="AX43" s="33"/>
-      <c r="AY43" s="33"/>
-      <c r="AZ43" s="33"/>
-      <c r="BA43" s="33"/>
-      <c r="BB43" s="33"/>
-      <c r="BC43" s="33"/>
-      <c r="BD43" s="34"/>
+      <c r="AN43" s="35"/>
+      <c r="AO43" s="36"/>
+      <c r="AP43" s="36"/>
+      <c r="AQ43" s="36"/>
+      <c r="AR43" s="36"/>
+      <c r="AS43" s="36"/>
+      <c r="AT43" s="36"/>
+      <c r="AU43" s="36"/>
+      <c r="AV43" s="37"/>
+      <c r="AW43" s="35"/>
+      <c r="AX43" s="36"/>
+      <c r="AY43" s="36"/>
+      <c r="AZ43" s="36"/>
+      <c r="BA43" s="36"/>
+      <c r="BB43" s="36"/>
+      <c r="BC43" s="36"/>
+      <c r="BD43" s="37"/>
     </row>
     <row r="44" spans="5:56" x14ac:dyDescent="0.4">
       <c r="E44" t="s">
         <v>45</v>
       </c>
       <c r="Y44" s="5"/>
-      <c r="AN44" s="32"/>
-      <c r="AO44" s="33"/>
-      <c r="AP44" s="33"/>
-      <c r="AQ44" s="33"/>
-      <c r="AR44" s="33"/>
-      <c r="AS44" s="33"/>
-      <c r="AT44" s="33"/>
-      <c r="AU44" s="33"/>
-      <c r="AV44" s="34"/>
-      <c r="AW44" s="32"/>
-      <c r="AX44" s="33"/>
-      <c r="AY44" s="33"/>
-      <c r="AZ44" s="33"/>
-      <c r="BA44" s="33"/>
-      <c r="BB44" s="33"/>
-      <c r="BC44" s="33"/>
-      <c r="BD44" s="34"/>
+      <c r="AN44" s="35"/>
+      <c r="AO44" s="36"/>
+      <c r="AP44" s="36"/>
+      <c r="AQ44" s="36"/>
+      <c r="AR44" s="36"/>
+      <c r="AS44" s="36"/>
+      <c r="AT44" s="36"/>
+      <c r="AU44" s="36"/>
+      <c r="AV44" s="37"/>
+      <c r="AW44" s="35"/>
+      <c r="AX44" s="36"/>
+      <c r="AY44" s="36"/>
+      <c r="AZ44" s="36"/>
+      <c r="BA44" s="36"/>
+      <c r="BB44" s="36"/>
+      <c r="BC44" s="36"/>
+      <c r="BD44" s="37"/>
     </row>
     <row r="45" spans="5:56" x14ac:dyDescent="0.4">
       <c r="E45" t="s">
         <v>43</v>
       </c>
-      <c r="AN45" s="32"/>
-      <c r="AO45" s="33"/>
-      <c r="AP45" s="33"/>
-      <c r="AQ45" s="33"/>
-      <c r="AR45" s="33"/>
-      <c r="AS45" s="33"/>
-      <c r="AT45" s="33"/>
-      <c r="AU45" s="33"/>
-      <c r="AV45" s="34"/>
-      <c r="AW45" s="32"/>
-      <c r="AX45" s="33"/>
-      <c r="AY45" s="33"/>
-      <c r="AZ45" s="33"/>
-      <c r="BA45" s="33"/>
-      <c r="BB45" s="33"/>
-      <c r="BC45" s="33"/>
-      <c r="BD45" s="34"/>
+      <c r="AN45" s="35"/>
+      <c r="AO45" s="36"/>
+      <c r="AP45" s="36"/>
+      <c r="AQ45" s="36"/>
+      <c r="AR45" s="36"/>
+      <c r="AS45" s="36"/>
+      <c r="AT45" s="36"/>
+      <c r="AU45" s="36"/>
+      <c r="AV45" s="37"/>
+      <c r="AW45" s="35"/>
+      <c r="AX45" s="36"/>
+      <c r="AY45" s="36"/>
+      <c r="AZ45" s="36"/>
+      <c r="BA45" s="36"/>
+      <c r="BB45" s="36"/>
+      <c r="BC45" s="36"/>
+      <c r="BD45" s="37"/>
     </row>
     <row r="46" spans="5:56" x14ac:dyDescent="0.4">
       <c r="E46" t="s">
         <v>44</v>
       </c>
-      <c r="AN46" s="35"/>
-      <c r="AO46" s="36"/>
-      <c r="AP46" s="36"/>
-      <c r="AQ46" s="36"/>
-      <c r="AR46" s="36"/>
-      <c r="AS46" s="36"/>
-      <c r="AT46" s="36"/>
-      <c r="AU46" s="36"/>
-      <c r="AV46" s="37"/>
-      <c r="AW46" s="35"/>
-      <c r="AX46" s="36"/>
-      <c r="AY46" s="36"/>
-      <c r="AZ46" s="36"/>
-      <c r="BA46" s="36"/>
-      <c r="BB46" s="36"/>
-      <c r="BC46" s="36"/>
-      <c r="BD46" s="37"/>
+      <c r="AN46" s="38"/>
+      <c r="AO46" s="39"/>
+      <c r="AP46" s="39"/>
+      <c r="AQ46" s="39"/>
+      <c r="AR46" s="39"/>
+      <c r="AS46" s="39"/>
+      <c r="AT46" s="39"/>
+      <c r="AU46" s="39"/>
+      <c r="AV46" s="40"/>
+      <c r="AW46" s="38"/>
+      <c r="AX46" s="39"/>
+      <c r="AY46" s="39"/>
+      <c r="AZ46" s="39"/>
+      <c r="BA46" s="39"/>
+      <c r="BB46" s="39"/>
+      <c r="BC46" s="39"/>
+      <c r="BD46" s="40"/>
     </row>
     <row r="47" spans="5:56" x14ac:dyDescent="0.4">
       <c r="E47" t="s">
@@ -6115,6 +6365,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C16:X17"/>
+    <mergeCell ref="C15:X15"/>
+    <mergeCell ref="D19:U19"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="AN21:BD21"/>
+    <mergeCell ref="AN22:BD31"/>
+    <mergeCell ref="E22:AK42"/>
+    <mergeCell ref="E21:AK21"/>
+    <mergeCell ref="AN35:BD35"/>
+    <mergeCell ref="AN36:AV36"/>
+    <mergeCell ref="AW36:BD36"/>
+    <mergeCell ref="AN37:AV46"/>
+    <mergeCell ref="AW37:BD46"/>
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="C11:L11"/>
     <mergeCell ref="M11:T11"/>
@@ -6131,27 +6402,6 @@
     <mergeCell ref="D6:K6"/>
     <mergeCell ref="L6:S6"/>
     <mergeCell ref="T6:AN6"/>
-    <mergeCell ref="AN21:BD21"/>
-    <mergeCell ref="AN22:BD31"/>
-    <mergeCell ref="E22:AK42"/>
-    <mergeCell ref="E21:AK21"/>
-    <mergeCell ref="AN35:BD35"/>
-    <mergeCell ref="D19:U19"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C16:X17"/>
-    <mergeCell ref="C15:X15"/>
-    <mergeCell ref="AN36:AV36"/>
-    <mergeCell ref="AW36:BD36"/>
-    <mergeCell ref="AN37:AV46"/>
-    <mergeCell ref="AW37:BD46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6161,11 +6411,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326698FE-5961-4F1E-AD7D-F9513DA3EB28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6175,25 +6425,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
@@ -6264,49 +6514,49 @@
       <c r="C3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16" t="s">
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
     </row>
     <row r="4" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -6314,49 +6564,49 @@
       <c r="C4" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24" t="s">
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
     </row>
     <row r="5" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
@@ -6402,26 +6652,26 @@
     <row r="6" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
@@ -6447,26 +6697,26 @@
     <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
@@ -6503,28 +6753,28 @@
     <row r="9" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -6533,30 +6783,30 @@
     <row r="10" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20">
         <v>44057</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -6565,30 +6815,30 @@
     <row r="11" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22">
         <v>44064</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="39" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
@@ -6653,30 +6903,30 @@
     <row r="13" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -6696,30 +6946,30 @@
     <row r="14" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -6739,28 +6989,28 @@
     <row r="15" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -6780,28 +7030,28 @@
     <row r="16" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -6840,26 +7090,26 @@
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
     </row>
     <row r="20" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E20" s="41" t="s">
@@ -6901,781 +7151,781 @@
       <c r="AM20" s="43"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="33"/>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="33"/>
+      <c r="AM21" s="34"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
-      <c r="AM22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="37"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="33"/>
-      <c r="AM23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="37"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="33"/>
-      <c r="AM24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="37"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="33"/>
-      <c r="AL25" s="33"/>
-      <c r="AM25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="37"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="33"/>
-      <c r="AM26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="37"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="33"/>
-      <c r="AM27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="37"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="33"/>
-      <c r="AM28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="37"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="33"/>
-      <c r="AL29" s="33"/>
-      <c r="AM29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="37"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="33"/>
-      <c r="AM30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="37"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="33"/>
-      <c r="AH31" s="33"/>
-      <c r="AI31" s="33"/>
-      <c r="AJ31" s="33"/>
-      <c r="AK31" s="33"/>
-      <c r="AL31" s="33"/>
-      <c r="AM31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="36"/>
+      <c r="AK31" s="36"/>
+      <c r="AL31" s="36"/>
+      <c r="AM31" s="37"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="33"/>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="33"/>
-      <c r="AM32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="36"/>
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="36"/>
+      <c r="AI32" s="36"/>
+      <c r="AJ32" s="36"/>
+      <c r="AK32" s="36"/>
+      <c r="AL32" s="36"/>
+      <c r="AM32" s="37"/>
     </row>
     <row r="33" spans="5:40" x14ac:dyDescent="0.4">
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="33"/>
-      <c r="AJ33" s="33"/>
-      <c r="AK33" s="33"/>
-      <c r="AL33" s="33"/>
-      <c r="AM33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="36"/>
+      <c r="AI33" s="36"/>
+      <c r="AJ33" s="36"/>
+      <c r="AK33" s="36"/>
+      <c r="AL33" s="36"/>
+      <c r="AM33" s="37"/>
     </row>
     <row r="34" spans="5:40" x14ac:dyDescent="0.4">
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="33"/>
-      <c r="AJ34" s="33"/>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="33"/>
-      <c r="AM34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="37"/>
     </row>
     <row r="35" spans="5:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="33"/>
-      <c r="AH35" s="33"/>
-      <c r="AI35" s="33"/>
-      <c r="AJ35" s="33"/>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="33"/>
-      <c r="AM35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="37"/>
     </row>
     <row r="36" spans="5:40" x14ac:dyDescent="0.4">
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="33"/>
-      <c r="AJ36" s="33"/>
-      <c r="AK36" s="33"/>
-      <c r="AL36" s="33"/>
-      <c r="AM36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="37"/>
     </row>
     <row r="37" spans="5:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="33"/>
-      <c r="AI37" s="33"/>
-      <c r="AJ37" s="33"/>
-      <c r="AK37" s="33"/>
-      <c r="AL37" s="33"/>
-      <c r="AM37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="36"/>
+      <c r="AM37" s="37"/>
     </row>
     <row r="38" spans="5:40" x14ac:dyDescent="0.4">
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="33"/>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="33"/>
-      <c r="AK38" s="33"/>
-      <c r="AL38" s="33"/>
-      <c r="AM38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="36"/>
+      <c r="AK38" s="36"/>
+      <c r="AL38" s="36"/>
+      <c r="AM38" s="37"/>
     </row>
     <row r="39" spans="5:40" x14ac:dyDescent="0.4">
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="33"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="33"/>
-      <c r="AG39" s="33"/>
-      <c r="AH39" s="33"/>
-      <c r="AI39" s="33"/>
-      <c r="AJ39" s="33"/>
-      <c r="AK39" s="33"/>
-      <c r="AL39" s="33"/>
-      <c r="AM39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="36"/>
+      <c r="AJ39" s="36"/>
+      <c r="AK39" s="36"/>
+      <c r="AL39" s="36"/>
+      <c r="AM39" s="37"/>
     </row>
     <row r="40" spans="5:40" x14ac:dyDescent="0.4">
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="33"/>
-      <c r="AC40" s="33"/>
-      <c r="AD40" s="33"/>
-      <c r="AE40" s="33"/>
-      <c r="AF40" s="33"/>
-      <c r="AG40" s="33"/>
-      <c r="AH40" s="33"/>
-      <c r="AI40" s="33"/>
-      <c r="AJ40" s="33"/>
-      <c r="AK40" s="33"/>
-      <c r="AL40" s="33"/>
-      <c r="AM40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="36"/>
+      <c r="AJ40" s="36"/>
+      <c r="AK40" s="36"/>
+      <c r="AL40" s="36"/>
+      <c r="AM40" s="37"/>
     </row>
     <row r="41" spans="5:40" x14ac:dyDescent="0.4">
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="36"/>
-      <c r="AG41" s="36"/>
-      <c r="AH41" s="36"/>
-      <c r="AI41" s="36"/>
-      <c r="AJ41" s="36"/>
-      <c r="AK41" s="36"/>
-      <c r="AL41" s="36"/>
-      <c r="AM41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39"/>
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="40"/>
     </row>
     <row r="42" spans="5:40" x14ac:dyDescent="0.4">
       <c r="E42" t="s">
@@ -7700,11 +7950,1581 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="L3:S3"/>
+    <mergeCell ref="T3:AN3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="T4:AN4"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:T11"/>
     <mergeCell ref="E21:AM41"/>
     <mergeCell ref="E20:AM20"/>
     <mergeCell ref="C13:X13"/>
     <mergeCell ref="C14:X16"/>
     <mergeCell ref="D18:U18"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="18" max="19" width="4.125" customWidth="1"/>
+    <col min="31" max="31" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+    </row>
+    <row r="3" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+    </row>
+    <row r="4" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+    </row>
+    <row r="5" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+    </row>
+    <row r="6" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+    </row>
+    <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20">
+        <v>44057</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22">
+        <v>44064</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+    </row>
+    <row r="12" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+    </row>
+    <row r="13" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+    </row>
+    <row r="14" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+    </row>
+    <row r="15" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+    </row>
+    <row r="16" spans="1:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+    </row>
+    <row r="17" spans="1:39" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:39" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+    </row>
+    <row r="20" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="43"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="33"/>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="33"/>
+      <c r="AM21" s="34"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="37"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="37"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="37"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="37"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="37"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="37"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="37"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="37"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="37"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="36"/>
+      <c r="AK31" s="36"/>
+      <c r="AL31" s="36"/>
+      <c r="AM31" s="37"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="36"/>
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="36"/>
+      <c r="AI32" s="36"/>
+      <c r="AJ32" s="36"/>
+      <c r="AK32" s="36"/>
+      <c r="AL32" s="36"/>
+      <c r="AM32" s="37"/>
+    </row>
+    <row r="33" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="36"/>
+      <c r="AI33" s="36"/>
+      <c r="AJ33" s="36"/>
+      <c r="AK33" s="36"/>
+      <c r="AL33" s="36"/>
+      <c r="AM33" s="37"/>
+    </row>
+    <row r="34" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="37"/>
+    </row>
+    <row r="35" spans="5:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="37"/>
+    </row>
+    <row r="36" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="37"/>
+    </row>
+    <row r="37" spans="5:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="36"/>
+      <c r="AM37" s="37"/>
+    </row>
+    <row r="38" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="36"/>
+      <c r="AK38" s="36"/>
+      <c r="AL38" s="36"/>
+      <c r="AM38" s="37"/>
+    </row>
+    <row r="39" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="36"/>
+      <c r="AJ39" s="36"/>
+      <c r="AK39" s="36"/>
+      <c r="AL39" s="36"/>
+      <c r="AM39" s="37"/>
+    </row>
+    <row r="40" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E40" s="35"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="36"/>
+      <c r="AJ40" s="36"/>
+      <c r="AK40" s="36"/>
+      <c r="AL40" s="36"/>
+      <c r="AM40" s="37"/>
+    </row>
+    <row r="41" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39"/>
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="40"/>
+    </row>
+    <row r="42" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y43" s="5"/>
+    </row>
+    <row r="44" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="5:40" x14ac:dyDescent="0.4">
+      <c r="AN47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C13:X13"/>
+    <mergeCell ref="C14:X16"/>
+    <mergeCell ref="D18:U18"/>
+    <mergeCell ref="E20:AM20"/>
+    <mergeCell ref="E21:AM41"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="M10:T10"/>
